--- a/_PETRO/Frost_area/1_FROST_groups_area_time.xlsx
+++ b/_PETRO/Frost_area/1_FROST_groups_area_time.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_PETRO\Frost_area\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357CA45C-B353-40CE-BCE8-1E45A8B6E366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71654AEA-82D7-4453-A840-090BDD5124BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41C26FDA-1028-42AE-96AF-3BBE9107DF92}"/>
   </bookViews>
   <sheets>
-    <sheet name="MALI" sheetId="1" r:id="rId1"/>
-    <sheet name="Fe_number" sheetId="2" r:id="rId2"/>
-    <sheet name="ASI" sheetId="3" r:id="rId3"/>
+    <sheet name="Fe_number" sheetId="2" r:id="rId1"/>
+    <sheet name="ASI" sheetId="3" r:id="rId2"/>
+    <sheet name="MALI" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -639,2287 +639,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615B1F97-75D3-4899-BEF8-D472ADDF1457}">
-  <dimension ref="A1:X70"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="6.21875" customWidth="1"/>
-    <col min="18" max="18" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.77734375" customWidth="1"/>
-    <col min="20" max="20" width="5.88671875" customWidth="1"/>
-    <col min="21" max="21" width="7" customWidth="1"/>
-    <col min="22" max="22" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <f>C3/$C$7*100</f>
-        <v>2.9850746268656714</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <f>G3/$G$7*100</f>
-        <v>1.6778523489932886</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>45</v>
-      </c>
-      <c r="L3">
-        <f>K3/$K$7*100</f>
-        <v>7.1428571428571423</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f>O3/$O$7*100</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3">
-        <v>3</v>
-      </c>
-      <c r="T3">
-        <f>S3/$S$7*100</f>
-        <v>5.2631578947368416</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W3">
-        <f>C3+G3+K3+O3+S3</f>
-        <v>67</v>
-      </c>
-      <c r="X3">
-        <f>W3/$W$7*100</f>
-        <v>4.5984900480439261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>173</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D7" si="0">C4/$C$7*100</f>
-        <v>36.886993603411518</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>55</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H7" si="1">G4/$G$7*100</f>
-        <v>18.456375838926174</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4">
-        <v>301</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L7" si="2">K4/$K$7*100</f>
-        <v>47.777777777777779</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <f t="shared" ref="P4:P6" si="3">O4/$O$7*100</f>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4">
-        <v>13</v>
-      </c>
-      <c r="T4">
-        <f t="shared" ref="T4:T7" si="4">S4/$S$7*100</f>
-        <v>22.807017543859647</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W4">
-        <f t="shared" ref="W4:W7" si="5">C4+G4+K4+O4+S4</f>
-        <v>543</v>
-      </c>
-      <c r="X4">
-        <f t="shared" ref="X4:X7" si="6">W4/$W$7*100</f>
-        <v>37.268359643102265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>215</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>45.842217484008529</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>161</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>54.026845637583897</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <v>244</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
-        <v>38.730158730158735</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="3"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5">
-        <v>36</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="4"/>
-        <v>63.157894736842103</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="5"/>
-        <v>657</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="6"/>
-        <v>45.092656142759097</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>67</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>14.285714285714285</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>77</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>25.838926174496645</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6">
-        <v>40</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="2"/>
-        <v>6.3492063492063489</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="3"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S6">
-        <v>5</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="4"/>
-        <v>8.7719298245614024</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="5"/>
-        <v>190</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="6"/>
-        <v>13.040494166094716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C7" s="5">
-        <f>SUM(C3:C6)</f>
-        <v>469</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="G7" s="5">
-        <f>SUM(G3:G6)</f>
-        <v>298</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="K7" s="5">
-        <f>SUM(K3:K6)</f>
-        <v>630</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="O7" s="5">
-        <f>SUM(O3:O6)</f>
-        <v>3</v>
-      </c>
-      <c r="P7">
-        <f>O7/$O$7*100</f>
-        <v>100</v>
-      </c>
-      <c r="S7" s="5">
-        <f>SUM(S3:S6)</f>
-        <v>57</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="5"/>
-        <v>1457</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="S9" s="5"/>
-    </row>
-    <row r="11" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f>G14/$G$18*100</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14">
-        <v>139</v>
-      </c>
-      <c r="L14">
-        <f>K14/$K$18*10</f>
-        <v>1.9440559440559442</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14">
-        <v>56</v>
-      </c>
-      <c r="P14">
-        <f>O14/$O$18*100</f>
-        <v>17.777777777777779</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W14">
-        <f>C14+G14+K14+O14</f>
-        <v>195</v>
-      </c>
-      <c r="X14">
-        <f>W14/$W$18*100</f>
-        <v>18.786127167630056</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>100</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <f t="shared" ref="H15:H18" si="7">G15/$G$18*100</f>
-        <v>57.142857142857139</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15">
-        <v>354</v>
-      </c>
-      <c r="L15">
-        <f t="shared" ref="L15:L18" si="8">K15/$K$18*10</f>
-        <v>4.9510489510489508</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O15">
-        <v>165</v>
-      </c>
-      <c r="P15">
-        <f t="shared" ref="P15:P18" si="9">O15/$O$18*100</f>
-        <v>52.380952380952387</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W15">
-        <f t="shared" ref="W15:W18" si="10">C15+G15+K15+O15</f>
-        <v>524</v>
-      </c>
-      <c r="X15">
-        <f t="shared" ref="X15:X18" si="11">W15/$W$18*100</f>
-        <v>50.481695568400774</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="7"/>
-        <v>42.857142857142854</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16">
-        <v>189</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="8"/>
-        <v>2.6433566433566433</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16">
-        <v>87</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="9"/>
-        <v>27.61904761904762</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="10"/>
-        <v>279</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="11"/>
-        <v>26.878612716763005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17">
-        <v>33</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="8"/>
-        <v>0.46153846153846156</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O17">
-        <v>7</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="9"/>
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="11"/>
-        <v>3.8535645472061653</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
-      <c r="G18">
-        <v>7</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="K18" s="5">
-        <f>SUM(K14:K17)</f>
-        <v>715</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="O18" s="5">
-        <f>SUM(O14:O17)</f>
-        <v>315</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="10"/>
-        <v>1038</v>
-      </c>
-      <c r="X18">
-        <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="K19" s="5"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="22" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25">
-        <v>15</v>
-      </c>
-      <c r="H25">
-        <f>G25/$G$29*100</f>
-        <v>15.151515151515152</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25">
-        <v>189</v>
-      </c>
-      <c r="L25">
-        <f>K25/$K$29*100</f>
-        <v>18.862275449101794</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <f>O25/$O$29*100</f>
-        <v>14.285714285714285</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W25">
-        <f>C25+G25+K25+O25</f>
-        <v>205</v>
-      </c>
-      <c r="X25">
-        <f>W25/$W$29*100</f>
-        <v>18.48512173128945</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>100</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26">
-        <v>68</v>
-      </c>
-      <c r="H26">
-        <f t="shared" ref="H26:H29" si="12">G26/$G$29*100</f>
-        <v>68.686868686868678</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26">
-        <v>563</v>
-      </c>
-      <c r="L26">
-        <f t="shared" ref="L26:L29" si="13">K26/$K$29*100</f>
-        <v>56.187624750498998</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <f t="shared" ref="P26:P29" si="14">O26/$O$29*100</f>
-        <v>14.285714285714285</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W26">
-        <f t="shared" ref="W26:W29" si="15">C26+G26+K26+O26</f>
-        <v>633</v>
-      </c>
-      <c r="X26">
-        <f t="shared" ref="X26:X29" si="16">W26/$W$29*100</f>
-        <v>57.078449053201084</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27">
-        <v>15</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="12"/>
-        <v>15.151515151515152</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27">
-        <v>231</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="13"/>
-        <v>23.053892215568865</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O27">
-        <v>5</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="14"/>
-        <v>71.428571428571431</v>
-      </c>
-      <c r="V27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="15"/>
-        <v>251</v>
-      </c>
-      <c r="X27">
-        <f t="shared" si="16"/>
-        <v>22.633002705139766</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="12"/>
-        <v>1.0101010101010102</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28">
-        <v>19</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="13"/>
-        <v>1.8962075848303395</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="15"/>
-        <v>20</v>
-      </c>
-      <c r="X28">
-        <f t="shared" si="16"/>
-        <v>1.8034265103697025</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>100</v>
-      </c>
-      <c r="G29" s="5">
-        <f>SUM(G25:G28)</f>
-        <v>99</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="12"/>
-        <v>100</v>
-      </c>
-      <c r="K29" s="5">
-        <f>SUM(K25:K28)</f>
-        <v>1002</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="13"/>
-        <v>100</v>
-      </c>
-      <c r="O29" s="5">
-        <f>SUM(O25:O28)</f>
-        <v>7</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="15"/>
-        <v>1109</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="16"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="G31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="O31" s="5"/>
-    </row>
-    <row r="33" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36">
-        <v>102</v>
-      </c>
-      <c r="H36">
-        <f>G36/$G$40*100</f>
-        <v>22.319474835886215</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O36">
-        <v>6</v>
-      </c>
-      <c r="P36">
-        <f>O36/$O$40*100</f>
-        <v>40</v>
-      </c>
-      <c r="V36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="W36">
-        <f>C36+G36+K36+O36</f>
-        <v>108</v>
-      </c>
-      <c r="X36">
-        <f>W36/$W$40*100</f>
-        <v>22.689075630252102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>100</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37">
-        <v>233</v>
-      </c>
-      <c r="H37">
-        <f t="shared" ref="H37:H40" si="17">G37/$G$40*100</f>
-        <v>50.984682713347915</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>33.33</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O37">
-        <v>9</v>
-      </c>
-      <c r="P37">
-        <f t="shared" ref="P37:P40" si="18">O37/$O$40*100</f>
-        <v>60</v>
-      </c>
-      <c r="V37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="W37">
-        <f t="shared" ref="W37:W40" si="19">C37+G37+K37+O37</f>
-        <v>244</v>
-      </c>
-      <c r="X37">
-        <f t="shared" ref="X37:X40" si="20">W37/$W$40*100</f>
-        <v>51.260504201680668</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38">
-        <v>111</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="17"/>
-        <v>24.288840262582056</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>33.33</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="19"/>
-        <v>112</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="20"/>
-        <v>23.52941176470588</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39">
-        <v>11</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="17"/>
-        <v>2.4070021881838075</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39">
-        <v>33.33</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="W39">
-        <f t="shared" si="19"/>
-        <v>12</v>
-      </c>
-      <c r="X39">
-        <f t="shared" si="20"/>
-        <v>2.5210084033613445</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>100</v>
-      </c>
-      <c r="G40" s="5">
-        <f>SUM(G36:G39)</f>
-        <v>457</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="17"/>
-        <v>100</v>
-      </c>
-      <c r="K40">
-        <v>3</v>
-      </c>
-      <c r="L40">
-        <v>100</v>
-      </c>
-      <c r="O40" s="5">
-        <f>SUM(O36:O39)</f>
-        <v>15</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-      <c r="W40">
-        <f t="shared" si="19"/>
-        <v>476</v>
-      </c>
-      <c r="X40">
-        <f t="shared" si="20"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="G41" s="5"/>
-    </row>
-    <row r="44" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W46" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X46" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47">
-        <v>13</v>
-      </c>
-      <c r="D47">
-        <f>C47/$C$51*100</f>
-        <v>7.9268292682926829</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <f>G47/$G$51*100</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W47">
-        <f>C47+G47+K47</f>
-        <v>13</v>
-      </c>
-      <c r="X47">
-        <f>W47/$W$51*100</f>
-        <v>7.2625698324022352</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48">
-        <v>91</v>
-      </c>
-      <c r="D48">
-        <f t="shared" ref="D48:D51" si="21">C48/$C$51*100</f>
-        <v>55.487804878048784</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48">
-        <v>7</v>
-      </c>
-      <c r="H48">
-        <f t="shared" ref="H48:H51" si="22">G48/$G$51*100</f>
-        <v>53.846153846153847</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48">
-        <v>50</v>
-      </c>
-      <c r="V48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="W48">
-        <f t="shared" ref="W48:W51" si="23">C48+G48+K48</f>
-        <v>99</v>
-      </c>
-      <c r="X48">
-        <f t="shared" ref="X48:X51" si="24">W48/$W$51*100</f>
-        <v>55.307262569832403</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49">
-        <v>54</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="21"/>
-        <v>32.926829268292686</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49">
-        <v>4</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="22"/>
-        <v>30.76923076923077</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49">
-        <v>50</v>
-      </c>
-      <c r="V49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W49">
-        <f t="shared" si="23"/>
-        <v>59</v>
-      </c>
-      <c r="X49">
-        <f t="shared" si="24"/>
-        <v>32.960893854748605</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50">
-        <v>6</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="21"/>
-        <v>3.6585365853658534</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50">
-        <v>2</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="22"/>
-        <v>15.384615384615385</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="V50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="W50">
-        <f t="shared" si="23"/>
-        <v>8</v>
-      </c>
-      <c r="X50">
-        <f t="shared" si="24"/>
-        <v>4.4692737430167595</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C51" s="5">
-        <f>SUM(C47:C50)</f>
-        <v>164</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="21"/>
-        <v>100</v>
-      </c>
-      <c r="G51" s="5">
-        <f>SUM(G47:G50)</f>
-        <v>13</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="22"/>
-        <v>100</v>
-      </c>
-      <c r="K51">
-        <v>2</v>
-      </c>
-      <c r="L51">
-        <v>100</v>
-      </c>
-      <c r="W51">
-        <f t="shared" si="23"/>
-        <v>179</v>
-      </c>
-      <c r="X51">
-        <f t="shared" si="24"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="K52" s="5"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C53" s="5"/>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="55" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V57" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="W57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X57" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58">
-        <f>C3+C14+C25</f>
-        <v>14</v>
-      </c>
-      <c r="D58">
-        <f>C58/$C$62*100</f>
-        <v>2.9723991507431</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58">
-        <v>5</v>
-      </c>
-      <c r="H58">
-        <f>G58/$G$7*100</f>
-        <v>1.6778523489932886</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K58">
-        <f>K3+G14+G25+C36</f>
-        <v>60</v>
-      </c>
-      <c r="L58">
-        <f>K58/$K$62*100</f>
-        <v>8.1411126187245593</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O58">
-        <f>O3+K14+K25+G36+C47</f>
-        <v>443</v>
-      </c>
-      <c r="P58">
-        <f>O58/$O$62*100</f>
-        <v>18.923536950021358</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S58">
-        <f>O14+O25+K36+G47</f>
-        <v>57</v>
-      </c>
-      <c r="T58">
-        <f>S58/$S$62*100</f>
-        <v>16.863905325443788</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W58">
-        <f>S3+O36+K47</f>
-        <v>9</v>
-      </c>
-      <c r="X58">
-        <f>W58/$W$62*100</f>
-        <v>12.162162162162163</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59">
-        <f t="shared" ref="C59:C62" si="25">C4+C15+C26</f>
-        <v>175</v>
-      </c>
-      <c r="D59">
-        <f t="shared" ref="D59:D62" si="26">C59/$C$62*100</f>
-        <v>37.154989384288747</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59">
-        <v>55</v>
-      </c>
-      <c r="H59">
-        <f t="shared" ref="H59:H62" si="27">G59/$G$7*100</f>
-        <v>18.456375838926174</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59">
-        <f t="shared" ref="K59:K62" si="28">K4+G15+G26+C37</f>
-        <v>374</v>
-      </c>
-      <c r="L59">
-        <f t="shared" ref="L59:L62" si="29">K59/$K$62*100</f>
-        <v>50.746268656716417</v>
-      </c>
-      <c r="N59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O59">
-        <f t="shared" ref="O59:O62" si="30">O4+K15+K26+G37+C48</f>
-        <v>1242</v>
-      </c>
-      <c r="P59">
-        <f t="shared" ref="P59:P62" si="31">O59/$O$62*100</f>
-        <v>53.054250320375907</v>
-      </c>
-      <c r="R59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S59">
-        <f t="shared" ref="S59:S62" si="32">O15+O26+K37+G48</f>
-        <v>174</v>
-      </c>
-      <c r="T59">
-        <f t="shared" ref="T59:T62" si="33">S59/$S$62*100</f>
-        <v>51.479289940828401</v>
-      </c>
-      <c r="V59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="W59">
-        <f t="shared" ref="W59:W62" si="34">S4+O37+K48</f>
-        <v>23</v>
-      </c>
-      <c r="X59">
-        <f t="shared" ref="X59:X62" si="35">W59/$W$62*100</f>
-        <v>31.081081081081081</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60">
-        <f t="shared" si="25"/>
-        <v>215</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="26"/>
-        <v>45.647558386411887</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60">
-        <v>161</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="27"/>
-        <v>54.026845637583897</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="28"/>
-        <v>262</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="29"/>
-        <v>35.549525101763905</v>
-      </c>
-      <c r="N60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O60">
-        <f t="shared" si="30"/>
-        <v>586</v>
-      </c>
-      <c r="P60">
-        <f t="shared" si="31"/>
-        <v>25.032037590773175</v>
-      </c>
-      <c r="R60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S60">
-        <f t="shared" si="32"/>
-        <v>97</v>
-      </c>
-      <c r="T60">
-        <f t="shared" si="33"/>
-        <v>28.698224852071007</v>
-      </c>
-      <c r="V60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W60">
-        <f t="shared" si="34"/>
-        <v>37</v>
-      </c>
-      <c r="X60">
-        <f t="shared" si="35"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61">
-        <f t="shared" si="25"/>
-        <v>67</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="26"/>
-        <v>14.225053078556263</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61">
-        <v>77</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="27"/>
-        <v>25.838926174496645</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="28"/>
-        <v>41</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="29"/>
-        <v>5.5630936227951153</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O61">
-        <f t="shared" si="30"/>
-        <v>70</v>
-      </c>
-      <c r="P61">
-        <f t="shared" si="31"/>
-        <v>2.9901751388295601</v>
-      </c>
-      <c r="R61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S61">
-        <f t="shared" si="32"/>
-        <v>10</v>
-      </c>
-      <c r="T61">
-        <f t="shared" si="33"/>
-        <v>2.9585798816568047</v>
-      </c>
-      <c r="V61" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="W61">
-        <f t="shared" si="34"/>
-        <v>5</v>
-      </c>
-      <c r="X61">
-        <f t="shared" si="35"/>
-        <v>6.756756756756757</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C62">
-        <f t="shared" si="25"/>
-        <v>471</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="26"/>
-        <v>100</v>
-      </c>
-      <c r="G62" s="5">
-        <f>SUM(G58:G61)</f>
-        <v>298</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="27"/>
-        <v>100</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="28"/>
-        <v>737</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="29"/>
-        <v>100</v>
-      </c>
-      <c r="O62">
-        <f t="shared" si="30"/>
-        <v>2341</v>
-      </c>
-      <c r="P62">
-        <f t="shared" si="31"/>
-        <v>100</v>
-      </c>
-      <c r="S62">
-        <f t="shared" si="32"/>
-        <v>338</v>
-      </c>
-      <c r="T62">
-        <f t="shared" si="33"/>
-        <v>100</v>
-      </c>
-      <c r="W62">
-        <f t="shared" si="34"/>
-        <v>74</v>
-      </c>
-      <c r="X62">
-        <f t="shared" si="35"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B65" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V65" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X65" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66">
-        <f>C58+G58+K58+O58+S58+W58</f>
-        <v>588</v>
-      </c>
-      <c r="D66">
-        <f>C66/$C$70*100</f>
-        <v>13.806057760037568</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66">
-        <v>67</v>
-      </c>
-      <c r="H66">
-        <v>4.5984900480439261</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K66">
-        <v>195</v>
-      </c>
-      <c r="L66">
-        <v>18.786127167630056</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O66">
-        <v>205</v>
-      </c>
-      <c r="P66">
-        <v>18.48512173128945</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S66">
-        <v>108</v>
-      </c>
-      <c r="T66">
-        <v>22.689075630252102</v>
-      </c>
-      <c r="V66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W66">
-        <v>13</v>
-      </c>
-      <c r="X66">
-        <v>7.2625698324022352</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67">
-        <f t="shared" ref="C67:C70" si="36">C59+G59+K59+O59+S59+W59</f>
-        <v>2043</v>
-      </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D70" si="37">C67/$C$70*100</f>
-        <v>47.96900680911012</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67">
-        <v>543</v>
-      </c>
-      <c r="H67">
-        <v>37.268359643102265</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67">
-        <v>524</v>
-      </c>
-      <c r="L67">
-        <v>50.481695568400774</v>
-      </c>
-      <c r="N67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O67">
-        <v>633</v>
-      </c>
-      <c r="P67">
-        <v>57.078449053201084</v>
-      </c>
-      <c r="R67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S67">
-        <v>244</v>
-      </c>
-      <c r="T67">
-        <v>51.260504201680668</v>
-      </c>
-      <c r="V67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="W67">
-        <v>99</v>
-      </c>
-      <c r="X67">
-        <v>55.307262569832403</v>
-      </c>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="36"/>
-        <v>1358</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="37"/>
-        <v>31.885419112467716</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68">
-        <v>657</v>
-      </c>
-      <c r="H68">
-        <v>45.092656142759097</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K68">
-        <v>279</v>
-      </c>
-      <c r="L68">
-        <v>26.878612716763005</v>
-      </c>
-      <c r="N68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O68">
-        <v>251</v>
-      </c>
-      <c r="P68">
-        <v>22.633002705139766</v>
-      </c>
-      <c r="R68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S68">
-        <v>112</v>
-      </c>
-      <c r="T68">
-        <v>23.52941176470588</v>
-      </c>
-      <c r="V68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="W68">
-        <v>59</v>
-      </c>
-      <c r="X68">
-        <v>32.960893854748605</v>
-      </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B69" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="36"/>
-        <v>270</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="37"/>
-        <v>6.3395163183845966</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69">
-        <v>190</v>
-      </c>
-      <c r="H69">
-        <v>13.040494166094716</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K69">
-        <v>40</v>
-      </c>
-      <c r="L69">
-        <v>3.8535645472061653</v>
-      </c>
-      <c r="N69" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O69">
-        <v>20</v>
-      </c>
-      <c r="P69">
-        <v>1.8034265103697025</v>
-      </c>
-      <c r="R69" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S69">
-        <v>12</v>
-      </c>
-      <c r="T69">
-        <v>2.5210084033613445</v>
-      </c>
-      <c r="V69" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="W69">
-        <v>8</v>
-      </c>
-      <c r="X69">
-        <v>4.4692737430167595</v>
-      </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="C70">
-        <f t="shared" si="36"/>
-        <v>4259</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="37"/>
-        <v>100</v>
-      </c>
-      <c r="G70">
-        <v>1457</v>
-      </c>
-      <c r="H70">
-        <v>100</v>
-      </c>
-      <c r="K70">
-        <v>1038</v>
-      </c>
-      <c r="L70">
-        <v>100</v>
-      </c>
-      <c r="O70">
-        <v>1109</v>
-      </c>
-      <c r="P70">
-        <v>100</v>
-      </c>
-      <c r="S70">
-        <v>476</v>
-      </c>
-      <c r="T70">
-        <v>100</v>
-      </c>
-      <c r="W70">
-        <v>179</v>
-      </c>
-      <c r="X70">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB61A6A-EF37-4CE6-8BD0-F89404F8599F}">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
@@ -4389,11 +2112,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0472E81D-85BF-49FE-91B0-93B82933DE77}">
   <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
@@ -6270,4 +3993,2281 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615B1F97-75D3-4899-BEF8-D472ADDF1457}">
+  <dimension ref="A1:X70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6.21875" customWidth="1"/>
+    <col min="18" max="18" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.77734375" customWidth="1"/>
+    <col min="20" max="20" width="5.88671875" customWidth="1"/>
+    <col min="21" max="21" width="7" customWidth="1"/>
+    <col min="22" max="22" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <f>C3/$C$7*100</f>
+        <v>2.9850746268656714</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <f>G3/$G$7*100</f>
+        <v>1.6778523489932886</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>45</v>
+      </c>
+      <c r="L3">
+        <f>K3/$K$7*100</f>
+        <v>7.1428571428571423</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>O3/$O$7*100</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <f>S3/$S$7*100</f>
+        <v>5.2631578947368416</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <f>C3+G3+K3+O3+S3</f>
+        <v>67</v>
+      </c>
+      <c r="X3">
+        <f>W3/$W$7*100</f>
+        <v>4.5984900480439261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>173</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D7" si="0">C4/$C$7*100</f>
+        <v>36.886993603411518</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>55</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H7" si="1">G4/$G$7*100</f>
+        <v>18.456375838926174</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>301</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="2">K4/$K$7*100</f>
+        <v>47.777777777777779</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P6" si="3">O4/$O$7*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4">
+        <v>13</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T7" si="4">S4/$S$7*100</f>
+        <v>22.807017543859647</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W7" si="5">C4+G4+K4+O4+S4</f>
+        <v>543</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X7" si="6">W4/$W$7*100</f>
+        <v>37.268359643102265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>215</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>45.842217484008529</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>161</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>54.026845637583897</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>244</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>38.730158730158735</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5">
+        <v>36</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>63.157894736842103</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="5"/>
+        <v>657</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="6"/>
+        <v>45.092656142759097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>67</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>77</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>25.838926174496645</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>40</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>6.3492063492063489</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>8.7719298245614024</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="6"/>
+        <v>13.040494166094716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C7" s="5">
+        <f>SUM(C3:C6)</f>
+        <v>469</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="5">
+        <f>SUM(G3:G6)</f>
+        <v>298</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K7" s="5">
+        <f>SUM(K3:K6)</f>
+        <v>630</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="O7" s="5">
+        <f>SUM(O3:O6)</f>
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <f>O7/$O$7*100</f>
+        <v>100</v>
+      </c>
+      <c r="S7" s="5">
+        <f>SUM(S3:S6)</f>
+        <v>57</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="5"/>
+        <v>1457</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="11" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>G14/$G$18*100</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>139</v>
+      </c>
+      <c r="L14">
+        <f>K14/$K$18*10</f>
+        <v>1.9440559440559442</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>56</v>
+      </c>
+      <c r="P14">
+        <f>O14/$O$18*100</f>
+        <v>17.777777777777779</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14">
+        <f>C14+G14+K14+O14</f>
+        <v>195</v>
+      </c>
+      <c r="X14">
+        <f>W14/$W$18*100</f>
+        <v>18.786127167630056</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ref="H15:H18" si="7">G15/$G$18*100</f>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>354</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ref="L15:L18" si="8">K15/$K$18*10</f>
+        <v>4.9510489510489508</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15">
+        <v>165</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ref="P15:P18" si="9">O15/$O$18*100</f>
+        <v>52.380952380952387</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W15">
+        <f t="shared" ref="W15:W18" si="10">C15+G15+K15+O15</f>
+        <v>524</v>
+      </c>
+      <c r="X15">
+        <f t="shared" ref="X15:X18" si="11">W15/$W$18*100</f>
+        <v>50.481695568400774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16">
+        <v>189</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="8"/>
+        <v>2.6433566433566433</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16">
+        <v>87</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="9"/>
+        <v>27.61904761904762</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="10"/>
+        <v>279</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="11"/>
+        <v>26.878612716763005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17">
+        <v>33</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="8"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17">
+        <v>7</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="9"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="11"/>
+        <v>3.8535645472061653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="K18" s="5">
+        <f>SUM(K14:K17)</f>
+        <v>715</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="O18" s="5">
+        <f>SUM(O14:O17)</f>
+        <v>315</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="10"/>
+        <v>1038</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K19" s="5"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="22" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <f>G25/$G$29*100</f>
+        <v>15.151515151515152</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>189</v>
+      </c>
+      <c r="L25">
+        <f>K25/$K$29*100</f>
+        <v>18.862275449101794</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f>O25/$O$29*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W25">
+        <f>C25+G25+K25+O25</f>
+        <v>205</v>
+      </c>
+      <c r="X25">
+        <f>W25/$W$29*100</f>
+        <v>18.48512173128945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>68</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26:H29" si="12">G26/$G$29*100</f>
+        <v>68.686868686868678</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26">
+        <v>563</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ref="L26:L29" si="13">K26/$K$29*100</f>
+        <v>56.187624750498998</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ref="P26:P29" si="14">O26/$O$29*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="V26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W26">
+        <f t="shared" ref="W26:W29" si="15">C26+G26+K26+O26</f>
+        <v>633</v>
+      </c>
+      <c r="X26">
+        <f t="shared" ref="X26:X29" si="16">W26/$W$29*100</f>
+        <v>57.078449053201084</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="12"/>
+        <v>15.151515151515152</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27">
+        <v>231</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="13"/>
+        <v>23.053892215568865</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="14"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="15"/>
+        <v>251</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="16"/>
+        <v>22.633002705139766</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="12"/>
+        <v>1.0101010101010102</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28">
+        <v>19</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="13"/>
+        <v>1.8962075848303395</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="16"/>
+        <v>1.8034265103697025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="G29" s="5">
+        <f>SUM(G25:G28)</f>
+        <v>99</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="K29" s="5">
+        <f>SUM(K25:K28)</f>
+        <v>1002</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="O29" s="5">
+        <f>SUM(O25:O28)</f>
+        <v>7</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="15"/>
+        <v>1109</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="33" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>102</v>
+      </c>
+      <c r="H36">
+        <f>G36/$G$40*100</f>
+        <v>22.319474835886215</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O36">
+        <v>6</v>
+      </c>
+      <c r="P36">
+        <f>O36/$O$40*100</f>
+        <v>40</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W36">
+        <f>C36+G36+K36+O36</f>
+        <v>108</v>
+      </c>
+      <c r="X36">
+        <f>W36/$W$40*100</f>
+        <v>22.689075630252102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <v>233</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ref="H37:H40" si="17">G37/$G$40*100</f>
+        <v>50.984682713347915</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>33.33</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O37">
+        <v>9</v>
+      </c>
+      <c r="P37">
+        <f t="shared" ref="P37:P40" si="18">O37/$O$40*100</f>
+        <v>60</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W37">
+        <f t="shared" ref="W37:W40" si="19">C37+G37+K37+O37</f>
+        <v>244</v>
+      </c>
+      <c r="X37">
+        <f t="shared" ref="X37:X40" si="20">W37/$W$40*100</f>
+        <v>51.260504201680668</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38">
+        <v>111</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="17"/>
+        <v>24.288840262582056</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>33.33</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="19"/>
+        <v>112</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="20"/>
+        <v>23.52941176470588</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39">
+        <v>11</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="17"/>
+        <v>2.4070021881838075</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>33.33</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="20"/>
+        <v>2.5210084033613445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+      <c r="G40" s="5">
+        <f>SUM(G36:G39)</f>
+        <v>457</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>100</v>
+      </c>
+      <c r="O40" s="5">
+        <f>SUM(O36:O39)</f>
+        <v>15</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="19"/>
+        <v>476</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G41" s="5"/>
+    </row>
+    <row r="44" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>13</v>
+      </c>
+      <c r="D47">
+        <f>C47/$C$51*100</f>
+        <v>7.9268292682926829</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f>G47/$G$51*100</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W47">
+        <f>C47+G47+K47</f>
+        <v>13</v>
+      </c>
+      <c r="X47">
+        <f>W47/$W$51*100</f>
+        <v>7.2625698324022352</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>91</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48:D51" si="21">C48/$C$51*100</f>
+        <v>55.487804878048784</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48">
+        <v>7</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ref="H48:H51" si="22">G48/$G$51*100</f>
+        <v>53.846153846153847</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>50</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W48">
+        <f t="shared" ref="W48:W51" si="23">C48+G48+K48</f>
+        <v>99</v>
+      </c>
+      <c r="X48">
+        <f t="shared" ref="X48:X51" si="24">W48/$W$51*100</f>
+        <v>55.307262569832403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>54</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="21"/>
+        <v>32.926829268292686</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="22"/>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>50</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="23"/>
+        <v>59</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="24"/>
+        <v>32.960893854748605</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="21"/>
+        <v>3.6585365853658534</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="22"/>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="24"/>
+        <v>4.4692737430167595</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C51" s="5">
+        <f>SUM(C47:C50)</f>
+        <v>164</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="G51" s="5">
+        <f>SUM(G47:G50)</f>
+        <v>13</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>100</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="23"/>
+        <v>179</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="55" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <f>C3+C14+C25</f>
+        <v>14</v>
+      </c>
+      <c r="D58">
+        <f>C58/$C$62*100</f>
+        <v>2.9723991507431</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <f>G58/$G$7*100</f>
+        <v>1.6778523489932886</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58">
+        <f>K3+G14+G25+C36</f>
+        <v>60</v>
+      </c>
+      <c r="L58">
+        <f>K58/$K$62*100</f>
+        <v>8.1411126187245593</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O58">
+        <f>O3+K14+K25+G36+C47</f>
+        <v>443</v>
+      </c>
+      <c r="P58">
+        <f>O58/$O$62*100</f>
+        <v>18.923536950021358</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S58">
+        <f>O14+O25+K36+G47</f>
+        <v>57</v>
+      </c>
+      <c r="T58">
+        <f>S58/$S$62*100</f>
+        <v>16.863905325443788</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W58">
+        <f>S3+O36+K47</f>
+        <v>9</v>
+      </c>
+      <c r="X58">
+        <f>W58/$W$62*100</f>
+        <v>12.162162162162163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ref="C59:C62" si="25">C4+C15+C26</f>
+        <v>175</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ref="D59:D62" si="26">C59/$C$62*100</f>
+        <v>37.154989384288747</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59">
+        <v>55</v>
+      </c>
+      <c r="H59">
+        <f t="shared" ref="H59:H62" si="27">G59/$G$7*100</f>
+        <v>18.456375838926174</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59">
+        <f t="shared" ref="K59:K62" si="28">K4+G15+G26+C37</f>
+        <v>374</v>
+      </c>
+      <c r="L59">
+        <f t="shared" ref="L59:L62" si="29">K59/$K$62*100</f>
+        <v>50.746268656716417</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O59">
+        <f t="shared" ref="O59:O62" si="30">O4+K15+K26+G37+C48</f>
+        <v>1242</v>
+      </c>
+      <c r="P59">
+        <f t="shared" ref="P59:P62" si="31">O59/$O$62*100</f>
+        <v>53.054250320375907</v>
+      </c>
+      <c r="R59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S59">
+        <f t="shared" ref="S59:S62" si="32">O15+O26+K37+G48</f>
+        <v>174</v>
+      </c>
+      <c r="T59">
+        <f t="shared" ref="T59:T62" si="33">S59/$S$62*100</f>
+        <v>51.479289940828401</v>
+      </c>
+      <c r="V59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W59">
+        <f t="shared" ref="W59:W62" si="34">S4+O37+K48</f>
+        <v>23</v>
+      </c>
+      <c r="X59">
+        <f t="shared" ref="X59:X62" si="35">W59/$W$62*100</f>
+        <v>31.081081081081081</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="25"/>
+        <v>215</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="26"/>
+        <v>45.647558386411887</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60">
+        <v>161</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="27"/>
+        <v>54.026845637583897</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="28"/>
+        <v>262</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="29"/>
+        <v>35.549525101763905</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="30"/>
+        <v>586</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="31"/>
+        <v>25.032037590773175</v>
+      </c>
+      <c r="R60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="32"/>
+        <v>97</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="33"/>
+        <v>28.698224852071007</v>
+      </c>
+      <c r="V60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="34"/>
+        <v>37</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="35"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="25"/>
+        <v>67</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="26"/>
+        <v>14.225053078556263</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61">
+        <v>77</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="27"/>
+        <v>25.838926174496645</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="28"/>
+        <v>41</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="29"/>
+        <v>5.5630936227951153</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="30"/>
+        <v>70</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="31"/>
+        <v>2.9901751388295601</v>
+      </c>
+      <c r="R61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="32"/>
+        <v>10</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="33"/>
+        <v>2.9585798816568047</v>
+      </c>
+      <c r="V61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="35"/>
+        <v>6.756756756756757</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <f t="shared" si="25"/>
+        <v>471</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="26"/>
+        <v>100</v>
+      </c>
+      <c r="G62" s="5">
+        <f>SUM(G58:G61)</f>
+        <v>298</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="27"/>
+        <v>100</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="28"/>
+        <v>737</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="29"/>
+        <v>100</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="30"/>
+        <v>2341</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="31"/>
+        <v>100</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="32"/>
+        <v>338</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="33"/>
+        <v>100</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="34"/>
+        <v>74</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="35"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <f>C58+G58+K58+O58+S58+W58</f>
+        <v>588</v>
+      </c>
+      <c r="D66">
+        <f>C66/$C$70*100</f>
+        <v>13.806057760037568</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66">
+        <v>67</v>
+      </c>
+      <c r="H66">
+        <v>4.5984900480439261</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K66">
+        <v>195</v>
+      </c>
+      <c r="L66">
+        <v>18.786127167630056</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66">
+        <v>205</v>
+      </c>
+      <c r="P66">
+        <v>18.48512173128945</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S66">
+        <v>108</v>
+      </c>
+      <c r="T66">
+        <v>22.689075630252102</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W66">
+        <v>13</v>
+      </c>
+      <c r="X66">
+        <v>7.2625698324022352</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C70" si="36">C59+G59+K59+O59+S59+W59</f>
+        <v>2043</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D70" si="37">C67/$C$70*100</f>
+        <v>47.96900680911012</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67">
+        <v>543</v>
+      </c>
+      <c r="H67">
+        <v>37.268359643102265</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67">
+        <v>524</v>
+      </c>
+      <c r="L67">
+        <v>50.481695568400774</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O67">
+        <v>633</v>
+      </c>
+      <c r="P67">
+        <v>57.078449053201084</v>
+      </c>
+      <c r="R67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S67">
+        <v>244</v>
+      </c>
+      <c r="T67">
+        <v>51.260504201680668</v>
+      </c>
+      <c r="V67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W67">
+        <v>99</v>
+      </c>
+      <c r="X67">
+        <v>55.307262569832403</v>
+      </c>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="36"/>
+        <v>1358</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="37"/>
+        <v>31.885419112467716</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68">
+        <v>657</v>
+      </c>
+      <c r="H68">
+        <v>45.092656142759097</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K68">
+        <v>279</v>
+      </c>
+      <c r="L68">
+        <v>26.878612716763005</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O68">
+        <v>251</v>
+      </c>
+      <c r="P68">
+        <v>22.633002705139766</v>
+      </c>
+      <c r="R68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S68">
+        <v>112</v>
+      </c>
+      <c r="T68">
+        <v>23.52941176470588</v>
+      </c>
+      <c r="V68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W68">
+        <v>59</v>
+      </c>
+      <c r="X68">
+        <v>32.960893854748605</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="36"/>
+        <v>270</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="37"/>
+        <v>6.3395163183845966</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69">
+        <v>190</v>
+      </c>
+      <c r="H69">
+        <v>13.040494166094716</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69">
+        <v>40</v>
+      </c>
+      <c r="L69">
+        <v>3.8535645472061653</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O69">
+        <v>20</v>
+      </c>
+      <c r="P69">
+        <v>1.8034265103697025</v>
+      </c>
+      <c r="R69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S69">
+        <v>12</v>
+      </c>
+      <c r="T69">
+        <v>2.5210084033613445</v>
+      </c>
+      <c r="V69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W69">
+        <v>8</v>
+      </c>
+      <c r="X69">
+        <v>4.4692737430167595</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <f t="shared" si="36"/>
+        <v>4259</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="37"/>
+        <v>100</v>
+      </c>
+      <c r="G70">
+        <v>1457</v>
+      </c>
+      <c r="H70">
+        <v>100</v>
+      </c>
+      <c r="K70">
+        <v>1038</v>
+      </c>
+      <c r="L70">
+        <v>100</v>
+      </c>
+      <c r="O70">
+        <v>1109</v>
+      </c>
+      <c r="P70">
+        <v>100</v>
+      </c>
+      <c r="S70">
+        <v>476</v>
+      </c>
+      <c r="T70">
+        <v>100</v>
+      </c>
+      <c r="W70">
+        <v>179</v>
+      </c>
+      <c r="X70">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>